--- a/testData.xlsx
+++ b/testData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" state="visible" r:id="rId2"/>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">1004</t>
   </si>
   <si>
-    <t xml:space="preserve">Devils Food</t>
+    <t xml:space="preserve">Devil’s Food</t>
   </si>
   <si>
     <t xml:space="preserve">batter</t>
@@ -232,11 +232,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.83"/>
@@ -307,10 +307,10 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -389,7 +389,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.89"/>
   </cols>
@@ -428,11 +428,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
